--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3969.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3969.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.199564953728657</v>
+        <v>2.03407883644104</v>
       </c>
       <c r="B1">
-        <v>2.334535294617201</v>
+        <v>2.132187366485596</v>
       </c>
       <c r="C1">
-        <v>5.861014207722949</v>
+        <v>2.534010648727417</v>
       </c>
       <c r="D1">
-        <v>3.330569556458638</v>
+        <v>2.761887550354004</v>
       </c>
       <c r="E1">
-        <v>1.411450459560697</v>
+        <v>1.415645599365234</v>
       </c>
     </row>
   </sheetData>
